--- a/Homework/Homework3/MAkingSuremathisright.xlsx
+++ b/Homework/Homework3/MAkingSuremathisright.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\MachineLearning\Homework\Homework3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57A742-A7CD-418C-A8F1-AF35E408F5E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51738105-15E8-4996-BCD7-6A70CC2C0C33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11145" yWindow="727" windowWidth="14423" windowHeight="11423" xr2:uid="{8887528E-41E3-4282-B057-7C6B3E7A75E7}"/>
+    <workbookView xWindow="14715" yWindow="615" windowWidth="14423" windowHeight="11423" xr2:uid="{8887528E-41E3-4282-B057-7C6B3E7A75E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Distance</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>vegetarian</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A6FEB1-83AE-44D9-9E78-B076E8C35385}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" activeCellId="1" sqref="E8:E9 E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -547,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -573,33 +576,33 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2">
-        <f>$B$14*B2</f>
-        <v>0.95819399999999999</v>
+        <f>B$19*B2</f>
+        <v>0.37969379999999997</v>
       </c>
       <c r="I2">
-        <f>C$14*C2</f>
-        <v>6.041817</v>
+        <f>C$19*C2</f>
+        <v>1.672704</v>
       </c>
       <c r="J2">
-        <f>D$14*D2</f>
-        <v>0.30013400000000001</v>
+        <f t="shared" ref="I2:K11" si="0">D$19*D2</f>
+        <v>0.35198399999999996</v>
       </c>
       <c r="K2">
-        <f>E$14*E2</f>
-        <v>3.7839999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2939780000000001</v>
       </c>
       <c r="L2">
         <f>SUM(H2:K2)</f>
-        <v>7.3379849999999998</v>
+        <v>6.6983598000000004</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -607,39 +610,39 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H3">
-        <f>$B$14*B3</f>
-        <v>0.15969900000000001</v>
+        <f>B$19*B3</f>
+        <v>0.18984689999999999</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="0">C$14*C3</f>
-        <v>2.6852520000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.92927999999999999</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" si="1">D$14*D3</f>
-        <v>0.90040200000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.2111904</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="2">E$14*E3</f>
-        <v>3.7839999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.146989</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L11" si="3">SUM(H3:K3)</f>
-        <v>3.7831930000000003</v>
+        <f t="shared" ref="L3:L11" si="1">SUM(H3:K3)</f>
+        <v>3.4773063</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -647,39 +650,39 @@
         <v>19</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
       <c r="D4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H4">
-        <f>$B$14*B4</f>
-        <v>1.2775920000000001</v>
+        <f>B$19*B4</f>
+        <v>0.1265646</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>2.0139390000000001</v>
+        <v>1.4868479999999999</v>
       </c>
       <c r="J4">
+        <f t="shared" si="0"/>
+        <v>3.5198399999999998E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>5.0096410000000002</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.350603</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>7.5679999999999997E-2</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="3"/>
-        <v>4.7178140000000006</v>
+        <v>6.6582520000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -687,39 +690,39 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
       <c r="E5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5">
-        <f>$B$14*B5</f>
-        <v>0.63879600000000003</v>
+        <f t="shared" ref="H3:H11" si="2">B$19*B5</f>
+        <v>6.32823E-2</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>6.041817</v>
+        <v>0.37171199999999999</v>
       </c>
       <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.3167856</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>6.4409670000000006</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="1"/>
-        <v>0.30013400000000001</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>9.459999999999999E-2</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
-        <v>7.0753469999999998</v>
+        <v>7.1927469000000004</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -727,39 +730,39 @@
         <v>21</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>4</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H3:H11" si="4">$B$14*B6</f>
-        <v>0.63879600000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.37969379999999997</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>2.0139390000000001</v>
+        <f>C$19*C6</f>
+        <v>0.37171199999999999</v>
       </c>
       <c r="J6">
-        <f>D$14*D6</f>
-        <v>0.75033499999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.35198399999999996</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>9.459999999999999E-2</v>
+        <f>E$19*E6</f>
+        <v>2.8626520000000002</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
-        <v>3.4976700000000003</v>
+        <f t="shared" si="1"/>
+        <v>3.9660418000000002</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -767,39 +770,39 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
-        <v>1.117893</v>
+        <f>B$19*B7</f>
+        <v>0.63282300000000002</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>5.3705040000000004</v>
+        <v>0.55756799999999995</v>
       </c>
       <c r="J7">
-        <f>D$14*D7</f>
-        <v>0.90040200000000004</v>
+        <f t="shared" si="0"/>
+        <v>3.5198399999999998E-2</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>3.7839999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5783150000000004</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
-        <v>7.4266390000000007</v>
+        <f t="shared" si="1"/>
+        <v>4.8039044000000004</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -807,39 +810,39 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>0.79849500000000007</v>
+        <f t="shared" si="2"/>
+        <v>0.44297609999999998</v>
       </c>
       <c r="I8">
-        <f>C$14*C8</f>
-        <v>0.67131300000000005</v>
+        <f t="shared" si="0"/>
+        <v>1.85856</v>
       </c>
       <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.14079359999999999</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>5.7253040000000004</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>0.75033499999999997</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>3.7839999999999999E-2</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
-        <v>2.2579830000000003</v>
+        <v>8.1676336999999997</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -847,39 +850,39 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
-        <v>1.117893</v>
+        <f t="shared" si="2"/>
+        <v>0.56954070000000001</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>6.7131300000000005</v>
+        <v>0.18585599999999999</v>
       </c>
       <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.1055952</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>5.7253040000000004</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.0504690000000001</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>1.8919999999999999E-2</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
-        <v>8.9004119999999993</v>
+        <v>6.5862959000000005</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -890,36 +893,36 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
-        <v>1.2775920000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.5062584</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.67131300000000005</v>
+        <v>1.4868479999999999</v>
       </c>
       <c r="J10">
+        <f t="shared" si="0"/>
+        <v>7.0396799999999995E-2</v>
+      </c>
+      <c r="K10">
+        <f>E$19*E10</f>
+        <v>1.4313260000000001</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="1"/>
-        <v>0.60026800000000002</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>0.18919999999999998</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
-        <v>2.7383730000000002</v>
+        <v>3.4948291999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -927,39 +930,39 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
-        <v>1.4372910000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.44297609999999998</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>6.041817</v>
+        <v>0.55756799999999995</v>
       </c>
       <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.2111904</v>
+      </c>
+      <c r="K11">
+        <f>E$19*E11</f>
+        <v>5.7253040000000004</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
-        <v>0.15006700000000001</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>0.13244</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
-        <v>7.7616149999999999</v>
+        <v>6.9370384999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -1073,13 +1076,13 @@
         <v>6.32823E-2</v>
       </c>
       <c r="C19">
-        <v>0.71566300000000005</v>
+        <v>0.18585599999999999</v>
       </c>
       <c r="D19">
         <v>3.5198399999999998E-2</v>
       </c>
       <c r="E19">
-        <v>0.18585599999999999</v>
+        <v>0.71566300000000005</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -1148,6 +1151,24 @@
       </c>
       <c r="E23">
         <v>0.110612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f>MAX(B14:B23)</f>
+        <v>0.63124599999999997</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:E24" si="3">MAX(C14:C23)</f>
+        <v>0.67131300000000005</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>0.55176700000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.71566300000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1158,14 +1179,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A646FC6-4000-4A4F-A302-946D9873A180}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>0.44297609999999998</v>
+      </c>
+      <c r="D3">
+        <v>1.85856</v>
+      </c>
+      <c r="E3">
+        <v>0.14079359999999999</v>
+      </c>
+      <c r="F3">
+        <v>5.7253040000000004</v>
+      </c>
+      <c r="G3">
+        <v>8.1676336999999997</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>6.32823E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.37171199999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.3167856</v>
+      </c>
+      <c r="F4">
+        <v>6.4409670000000006</v>
+      </c>
+      <c r="G4">
+        <v>7.1927469000000004</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0.44297609999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.55756799999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.2111904</v>
+      </c>
+      <c r="F5">
+        <v>5.7253040000000004</v>
+      </c>
+      <c r="G5">
+        <v>6.9370384999999999</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0.37969379999999997</v>
+      </c>
+      <c r="D6">
+        <v>1.672704</v>
+      </c>
+      <c r="E6">
+        <v>0.35198399999999996</v>
+      </c>
+      <c r="F6">
+        <v>4.2939780000000001</v>
+      </c>
+      <c r="G6">
+        <v>6.6983598000000004</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>0.1265646</v>
+      </c>
+      <c r="D7">
+        <v>1.4868479999999999</v>
+      </c>
+      <c r="E7">
+        <v>3.5198399999999998E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.0096410000000002</v>
+      </c>
+      <c r="G7">
+        <v>6.6582520000000001</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>0.56954070000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.18585599999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.1055952</v>
+      </c>
+      <c r="F8">
+        <v>5.7253040000000004</v>
+      </c>
+      <c r="G8">
+        <v>6.5862959000000005</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0.63282300000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.55756799999999995</v>
+      </c>
+      <c r="E9">
+        <v>3.5198399999999998E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.5783150000000004</v>
+      </c>
+      <c r="G9">
+        <v>4.8039044000000004</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0.37969379999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.37171199999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.35198399999999996</v>
+      </c>
+      <c r="F10">
+        <v>2.8626520000000002</v>
+      </c>
+      <c r="G10">
+        <v>3.9660418000000002</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.5062584</v>
+      </c>
+      <c r="D11">
+        <v>1.4868479999999999</v>
+      </c>
+      <c r="E11">
+        <v>7.0396799999999995E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.4313260000000001</v>
+      </c>
+      <c r="G11">
+        <v>3.4948291999999999</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0.18984689999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.92927999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.2111904</v>
+      </c>
+      <c r="F12">
+        <v>2.146989</v>
+      </c>
+      <c r="G12">
+        <v>3.4773063</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G12">
+    <sortCondition descending="1" ref="G3:G12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Homework/Homework3/MAkingSuremathisright.xlsx
+++ b/Homework/Homework3/MAkingSuremathisright.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\MachineLearning\Homework\Homework3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51738105-15E8-4996-BCD7-6A70CC2C0C33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106232B4-B29F-4C87-91B5-80111C43E078}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="615" windowWidth="14423" windowHeight="11423" xr2:uid="{8887528E-41E3-4282-B057-7C6B3E7A75E7}"/>
+    <workbookView xWindow="6555" yWindow="1808" windowWidth="14422" windowHeight="11422" xr2:uid="{8887528E-41E3-4282-B057-7C6B3E7A75E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>Distance</t>
   </si>
@@ -125,13 +125,16 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>m_usr_x_rest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +157,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +175,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -192,11 +207,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1"/>
@@ -206,9 +222,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A6FEB1-83AE-44D9-9E78-B076E8C35385}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" activeCellId="1" sqref="E8:E9 E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -569,38 +587,38 @@
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <f>B$19*B2</f>
         <v>0.37969379999999997</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <f>C$19*C2</f>
         <v>1.672704</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <f t="shared" ref="I2:K11" si="0">D$19*D2</f>
         <v>0.35198399999999996</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <f t="shared" si="0"/>
         <v>4.2939780000000001</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="7">
         <f>SUM(H2:K2)</f>
         <v>6.6983598000000004</v>
       </c>
@@ -609,38 +627,38 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <f>B$19*B3</f>
         <v>0.18984689999999999</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <f t="shared" si="0"/>
         <v>0.92927999999999999</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <f t="shared" si="0"/>
         <v>0.2111904</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <f t="shared" si="0"/>
         <v>2.146989</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="7">
         <f t="shared" ref="L3:L11" si="1">SUM(H3:K3)</f>
         <v>3.4773063</v>
       </c>
@@ -649,38 +667,38 @@
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <f>B$19*B4</f>
         <v>0.1265646</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <f t="shared" si="0"/>
         <v>1.4868479999999999</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <f t="shared" si="0"/>
         <v>3.5198399999999998E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>5.0096410000000002</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <f t="shared" si="1"/>
         <v>6.6582520000000001</v>
       </c>
@@ -689,38 +707,38 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H3:H11" si="2">B$19*B5</f>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H11" si="2">B$19*B5</f>
         <v>6.32823E-2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>0.37171199999999999</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <f t="shared" si="0"/>
         <v>0.3167856</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>6.4409670000000006</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>7.1927469000000004</v>
       </c>
@@ -729,38 +747,38 @@
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <f t="shared" si="2"/>
         <v>0.37969379999999997</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <f>C$19*C6</f>
         <v>0.37171199999999999</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <f t="shared" si="0"/>
         <v>0.35198399999999996</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <f>E$19*E6</f>
         <v>2.8626520000000002</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>3.9660418000000002</v>
       </c>
@@ -769,38 +787,38 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <f>B$19*B7</f>
         <v>0.63282300000000002</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
         <v>0.55756799999999995</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
         <v>3.5198399999999998E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>3.5783150000000004</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="7">
         <f t="shared" si="1"/>
         <v>4.8039044000000004</v>
       </c>
@@ -809,38 +827,38 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>0.44297609999999998</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
         <v>1.85856</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <f t="shared" si="0"/>
         <v>0.14079359999999999</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>5.7253040000000004</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <f t="shared" si="1"/>
         <v>8.1676336999999997</v>
       </c>
@@ -849,38 +867,38 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <f t="shared" si="2"/>
         <v>0.56954070000000001</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
         <v>0.18585599999999999</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
         <v>0.1055952</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>5.7253040000000004</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <f t="shared" si="1"/>
         <v>6.5862959000000005</v>
       </c>
@@ -889,38 +907,38 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <f t="shared" si="2"/>
         <v>0.5062584</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
         <v>1.4868479999999999</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <f t="shared" si="0"/>
         <v>7.0396799999999995E-2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <f>E$19*E10</f>
         <v>1.4313260000000001</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="7">
         <f t="shared" si="1"/>
         <v>3.4948291999999999</v>
       </c>
@@ -929,38 +947,38 @@
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <f t="shared" si="2"/>
         <v>0.44297609999999998</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <f t="shared" si="0"/>
         <v>0.55756799999999995</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="7">
         <f t="shared" si="0"/>
         <v>0.2111904</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="7">
         <f>E$19*E11</f>
         <v>5.7253040000000004</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="7">
         <f t="shared" si="1"/>
         <v>6.9370384999999999</v>
       </c>
@@ -987,16 +1005,16 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>0.15969900000000001</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>0.67131300000000005</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>0.15006700000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>1.8919999999999999E-2</v>
       </c>
     </row>
@@ -1004,16 +1022,16 @@
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>0.63124599999999997</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>0.20269899999999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>1.3543100000000001E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>0.15251200000000001</v>
       </c>
     </row>
@@ -1021,139 +1039,139 @@
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>0.31216500000000003</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>0.47279700000000002</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>8.7433700000000003E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>0.127604</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>0.24374999999999999</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>0.52132900000000004</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>5.6819399999999999E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>0.17810200000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>0.46776299999999998</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>0.50343700000000002</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>1.9886299999999999E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>8.9134899999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>6.32823E-2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>0.18585599999999999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>3.5198399999999998E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>0.71566300000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>0.57741500000000001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>0.13886899999999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>0.21460899999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>6.9106500000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>0.26575100000000001</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>0.41228199999999998</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>4.2287000000000002E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>0.31773800000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>0.14797199999999999</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>0.26915600000000001</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>0.55176700000000001</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>3.11052E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>0.44669300000000001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>0.37458000000000002</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>6.81147E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>0.110612</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B24">
         <f>MAX(B14:B23)</f>
         <v>0.63124599999999997</v>
@@ -1171,6 +1189,433 @@
         <v>0.71566300000000005</v>
       </c>
     </row>
+    <row r="25" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="26" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="7">
+        <v>8.6142099999999999</v>
+      </c>
+      <c r="C27" s="7">
+        <v>6.6622700000000004</v>
+      </c>
+      <c r="D27" s="7">
+        <v>7.7681199999999997</v>
+      </c>
+      <c r="E27" s="7">
+        <v>7.7912699999999999</v>
+      </c>
+      <c r="F27" s="7">
+        <v>7.5898500000000002</v>
+      </c>
+      <c r="G27" s="7">
+        <v>6.6983600000000001</v>
+      </c>
+      <c r="H27" s="7">
+        <v>7.2750399999999997</v>
+      </c>
+      <c r="I27" s="7">
+        <v>7.2537599999999998</v>
+      </c>
+      <c r="J27" s="7">
+        <v>9.0145400000000002</v>
+      </c>
+      <c r="K27" s="7">
+        <v>7.3962000000000003</v>
+      </c>
+      <c r="L27" s="7">
+        <f>SUM(B27:K27)</f>
+        <v>76.063619999999986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4.7928300000000004</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3.4460299999999999</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4.2078899999999999</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.21312</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.0665300000000002</v>
+      </c>
+      <c r="G28" s="7">
+        <v>3.4773100000000001</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3.9215599999999999</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3.83725</v>
+      </c>
+      <c r="J28" s="7">
+        <v>5.1936099999999996</v>
+      </c>
+      <c r="K28" s="7">
+        <v>3.9535</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" ref="L28:L36" si="4">SUM(B28:K28)</f>
+        <v>41.109630000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="7">
+        <v>5.97241</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3.9652099999999999</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5.3873699999999998</v>
+      </c>
+      <c r="E29" s="7">
+        <v>5.9616699999999998</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5.0453000000000001</v>
+      </c>
+      <c r="G29" s="7">
+        <v>6.6582499999999998</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2.96414</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6.0581500000000004</v>
+      </c>
+      <c r="J29" s="7">
+        <v>3.2187000000000001</v>
+      </c>
+      <c r="K29" s="7">
+        <v>4.7324200000000003</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="4"/>
+        <v>49.963619999999992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3.0232100000000002</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2.5311400000000002</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3.1930999999999998</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3.4007000000000001</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1.73384</v>
+      </c>
+      <c r="G30" s="7">
+        <v>7.1927500000000002</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3.4085899999999998</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3.9880200000000001</v>
+      </c>
+      <c r="J30" s="7">
+        <v>5.9321299999999999</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2.8043900000000002</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="4"/>
+        <v>37.20787</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3.8771800000000001</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4.9383499999999998</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4.2033399999999999</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3.7857599999999998</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4.0479700000000003</v>
+      </c>
+      <c r="G31" s="7">
+        <v>3.96604</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6.1647400000000001</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3.73231</v>
+      </c>
+      <c r="J31" s="7">
+        <v>7.0682299999999998</v>
+      </c>
+      <c r="K31" s="7">
+        <v>4.5529099999999998</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="4"/>
+        <v>46.336829999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.8555999999999999</v>
+      </c>
+      <c r="C32" s="7">
+        <v>7.6966599999999996</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5.2654899999999998</v>
+      </c>
+      <c r="E32" s="7">
+        <v>4.9488200000000004</v>
+      </c>
+      <c r="F32" s="7">
+        <v>6.2523900000000001</v>
+      </c>
+      <c r="G32" s="7">
+        <v>4.8038999999999996</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6.7508999999999997</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5.4872699999999996</v>
+      </c>
+      <c r="J32" s="7">
+        <v>2.9944799999999998</v>
+      </c>
+      <c r="K32" s="7">
+        <v>6.2118399999999996</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="4"/>
+        <v>54.267350000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8.5826600000000006</v>
+      </c>
+      <c r="C33" s="7">
+        <v>7.7199799999999996</v>
+      </c>
+      <c r="D33" s="7">
+        <v>8.28369</v>
+      </c>
+      <c r="E33" s="7">
+        <v>8.5716300000000007</v>
+      </c>
+      <c r="F33" s="7">
+        <v>8.4595599999999997</v>
+      </c>
+      <c r="G33" s="7">
+        <v>8.1676300000000008</v>
+      </c>
+      <c r="H33" s="7">
+        <v>6.8418799999999997</v>
+      </c>
+      <c r="I33" s="7">
+        <v>8.5419</v>
+      </c>
+      <c r="J33" s="7">
+        <v>6.1832700000000003</v>
+      </c>
+      <c r="K33" s="7">
+        <v>8.0300100000000008</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="4"/>
+        <v>79.382210000000015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2.7101700000000002</v>
+      </c>
+      <c r="C34" s="7">
+        <v>7.1446399999999999</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4.5654199999999996</v>
+      </c>
+      <c r="E34" s="7">
+        <v>4.3103499999999997</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4.8442699999999999</v>
+      </c>
+      <c r="G34" s="7">
+        <v>6.5862999999999996</v>
+      </c>
+      <c r="H34" s="7">
+        <v>6.5322800000000001</v>
+      </c>
+      <c r="I34" s="7">
+        <v>5.3586299999999998</v>
+      </c>
+      <c r="J34" s="7">
+        <v>3.5050500000000002</v>
+      </c>
+      <c r="K34" s="7">
+        <v>5.4840600000000004</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="4"/>
+        <v>51.041169999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="7">
+        <v>6.9860800000000003</v>
+      </c>
+      <c r="C35" s="7">
+        <v>7.0036699999999996</v>
+      </c>
+      <c r="D35" s="7">
+        <v>6.7097699999999998</v>
+      </c>
+      <c r="E35" s="7">
+        <v>6.5904699999999998</v>
+      </c>
+      <c r="F35" s="7">
+        <v>7.8272000000000004</v>
+      </c>
+      <c r="G35" s="7">
+        <v>3.4948299999999999</v>
+      </c>
+      <c r="H35" s="7">
+        <v>6.2976999999999999</v>
+      </c>
+      <c r="I35" s="7">
+        <v>6.0682</v>
+      </c>
+      <c r="J35" s="7">
+        <v>4.5027699999999999</v>
+      </c>
+      <c r="K35" s="7">
+        <v>6.9276400000000002</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="4"/>
+        <v>62.408329999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4.1836000000000002</v>
+      </c>
+      <c r="C36" s="7">
+        <v>6.3281700000000001</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5.1489799999999999</v>
+      </c>
+      <c r="E36" s="7">
+        <v>5.0359699999999998</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4.9752799999999997</v>
+      </c>
+      <c r="G36" s="7">
+        <v>6.9370399999999997</v>
+      </c>
+      <c r="H36" s="7">
+        <v>6.2990199999999996</v>
+      </c>
+      <c r="I36" s="7">
+        <v>5.6643800000000004</v>
+      </c>
+      <c r="J36" s="7">
+        <v>5.4027200000000004</v>
+      </c>
+      <c r="K36" s="7">
+        <v>5.5441799999999999</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="4"/>
+        <v>55.519339999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
